--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ABEV3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>AERI3</t>
         </is>
       </c>
@@ -458,12 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.42</t>
+          <t>7.32</t>
         </is>
       </c>
     </row>
@@ -475,12 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.09</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.09</t>
+          <t>5.04</t>
         </is>
       </c>
     </row>
@@ -492,12 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.20</t>
+          <t>16.80</t>
         </is>
       </c>
     </row>
@@ -507,12 +487,7 @@
           <t>Dividend Yield</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -522,12 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-2.38%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-70.54%</t>
+          <t>-56.43%</t>
         </is>
       </c>
     </row>
@@ -542,11 +512,6 @@
           <t>ON</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -556,11 +521,6 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>80 %</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>100 %</t>
         </is>
       </c>
@@ -573,12 +533,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>316412943.14</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1501198.81</t>
+          <t>9651419.33</t>
         </is>
       </c>
     </row>
@@ -590,11 +545,6 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.641</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>0.000</t>
         </is>
       </c>
@@ -607,12 +557,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -622,12 +567,7 @@
           <t>D.Y</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>5.75%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -637,12 +577,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.36</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-1.92</t>
+          <t>-2.59</t>
         </is>
       </c>
     </row>
@@ -654,11 +589,6 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>-0.02</t>
         </is>
       </c>
@@ -671,12 +601,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.32</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -688,12 +613,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.70</t>
+          <t>6.44</t>
         </is>
       </c>
     </row>
@@ -705,12 +625,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.69</t>
+          <t>16.57</t>
         </is>
       </c>
     </row>
@@ -722,12 +637,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2.11</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -739,12 +649,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.44</t>
+          <t>7.34</t>
         </is>
       </c>
     </row>
@@ -756,11 +661,6 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>16.70</t>
         </is>
       </c>
@@ -773,12 +673,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.09</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -790,11 +685,6 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>-2.83</t>
         </is>
       </c>
@@ -807,12 +697,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -824,12 +709,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28.61</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.83</t>
+          <t>1.11</t>
         </is>
       </c>
     </row>
@@ -841,12 +721,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.91</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-0.26</t>
+          <t>-0.35</t>
         </is>
       </c>
     </row>
@@ -858,11 +733,6 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-0.18</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>0.55</t>
         </is>
       </c>
@@ -875,11 +745,6 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>3.59</t>
         </is>
       </c>
@@ -892,11 +757,6 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>9.24</t>
         </is>
       </c>
@@ -909,11 +769,6 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>0.29</t>
         </is>
       </c>
@@ -926,11 +781,6 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>0.71</t>
         </is>
       </c>
@@ -943,11 +793,6 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>1.22</t>
         </is>
       </c>
@@ -960,11 +805,6 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>50.98%</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>10.95%</t>
         </is>
       </c>
@@ -977,11 +817,6 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31.92%</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>9.13%</t>
         </is>
       </c>
@@ -994,11 +829,6 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23.92%</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>3.55%</t>
         </is>
       </c>
@@ -1011,11 +841,6 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.92%</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>-10.06%</t>
         </is>
       </c>
@@ -1028,11 +853,6 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14.21%</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>-16.91%</t>
         </is>
       </c>
@@ -1045,11 +865,6 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9.47%</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>-4.90%</t>
         </is>
       </c>
@@ -1062,11 +877,6 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16.38%</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>1.18%</t>
         </is>
       </c>
@@ -1079,11 +889,6 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>0.49</t>
         </is>
       </c>
@@ -1096,11 +901,6 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9.68%</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>34.34%</t>
         </is>
       </c>
@@ -1111,12 +911,7 @@
           <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1126,11 +921,6 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>98140388000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>1037685000</t>
         </is>
       </c>
@@ -1143,11 +933,6 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>147286361000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>3580115000</t>
         </is>
       </c>
@@ -1160,11 +945,6 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42672930000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>2285015000</t>
         </is>
       </c>
@@ -1177,11 +957,6 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3380273000</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>1453382000</t>
         </is>
       </c>
@@ -1194,11 +969,6 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20939039000</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
           <t>881323000</t>
         </is>
       </c>
@@ -1211,11 +981,6 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-17558766000</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>572059000</t>
         </is>
       </c>
@@ -1228,12 +993,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>200279824741</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>336691462</t>
+          <t>453477431</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1005,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>182721058741</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>908750462</t>
+          <t>1025536431</t>
         </is>
       </c>
     </row>
@@ -1263,11 +1018,6 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15757657336</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>62120196</t>
         </is>
       </c>
@@ -1278,8 +1028,7 @@
           <t>Segmento de listagem</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Novo Mercado</t>
         </is>
@@ -1292,11 +1041,6 @@
         </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>27.89%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>57.08%</t>
         </is>
